--- a/data/trans_orig/P14B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B28AE17-E85E-417D-B55D-425C860442BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0166D9-6769-427C-BB82-E4AD45A717AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D60C086-4063-4072-98D2-EE46F492B79A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11D6EB51-1C82-4878-81E3-928B6CBD0C89}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="449">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>84,5%</t>
   </si>
   <si>
-    <t>35,21%</t>
+    <t>34,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,1309 +94,1297 @@
     <t>66,02%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>63,57%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>31,37%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>61,43%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>68,63%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C72F5F-7C15-4AE5-8CE1-811FB125E606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F81107F-F63E-48FE-BF9A-D6FCA490B142}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2552,7 +2540,7 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2564,13 +2552,13 @@
         <v>3979</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,10 +2573,10 @@
         <v>3978</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2600,13 +2588,13 @@
         <v>2762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2615,13 +2603,13 @@
         <v>6739</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2665,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2689,10 +2677,10 @@
         <v>5114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2704,13 +2692,13 @@
         <v>4070</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2719,13 +2707,13 @@
         <v>9185</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2728,13 @@
         <v>2042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2755,13 +2743,13 @@
         <v>4800</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2770,13 +2758,13 @@
         <v>6842</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2820,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2844,13 +2832,13 @@
         <v>2989</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2859,13 +2847,13 @@
         <v>5047</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2877,10 +2865,10 @@
         <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2883,13 @@
         <v>6831</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2910,13 +2898,13 @@
         <v>9927</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2928,10 +2916,10 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +2975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2999,13 +2987,13 @@
         <v>7171</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3014,13 +3002,13 @@
         <v>16692</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -3029,13 +3017,13 @@
         <v>23863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3038,13 @@
         <v>9290</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3065,13 +3053,13 @@
         <v>5098</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -3080,13 +3068,13 @@
         <v>14388</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3142,13 @@
         <v>27434</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -3169,13 +3157,13 @@
         <v>55677</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -3184,13 +3172,13 @@
         <v>83111</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3193,13 @@
         <v>37987</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3220,13 +3208,13 @@
         <v>40503</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3235,13 +3223,13 @@
         <v>78491</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3285,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED99D52-0920-4B13-A2CA-9AA2D4716EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94FD38-480A-471F-9D69-01A886AC7DA9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3445,13 +3433,13 @@
         <v>7302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3460,13 +3448,13 @@
         <v>6961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3475,13 +3463,13 @@
         <v>14263</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3484,13 @@
         <v>3046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3511,13 +3499,13 @@
         <v>3727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3526,13 +3514,13 @@
         <v>6773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3588,13 @@
         <v>3096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3615,13 +3603,13 @@
         <v>9075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3630,13 +3618,13 @@
         <v>12170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3639,13 @@
         <v>3125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3666,13 +3654,13 @@
         <v>9265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3681,13 +3669,13 @@
         <v>12390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,10 +3743,10 @@
         <v>4283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3770,13 +3758,13 @@
         <v>7528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3785,13 +3773,13 @@
         <v>11811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3794,13 @@
         <v>1890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -3821,13 +3809,13 @@
         <v>4435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3836,13 +3824,13 @@
         <v>6324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3898,13 @@
         <v>6843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3925,13 +3913,13 @@
         <v>12927</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3940,13 +3928,13 @@
         <v>19769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3949,13 @@
         <v>8562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3976,13 +3964,13 @@
         <v>7250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3991,13 +3979,13 @@
         <v>15813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4053,13 @@
         <v>814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4080,13 +4068,13 @@
         <v>3878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4095,13 +4083,13 @@
         <v>4692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,10 +4104,10 @@
         <v>4664</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4131,13 +4119,13 @@
         <v>2838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4146,13 +4134,13 @@
         <v>7502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4196,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4223,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>32</v>
@@ -4235,13 +4223,13 @@
         <v>4197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4250,13 +4238,13 @@
         <v>7673</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +4262,10 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4286,13 +4274,13 @@
         <v>3882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4301,13 +4289,13 @@
         <v>3882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,7 +4351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4375,13 +4363,13 @@
         <v>9713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4390,13 +4378,13 @@
         <v>20412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -4405,13 +4393,13 @@
         <v>30125</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4414,13 @@
         <v>10706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4441,13 +4429,13 @@
         <v>10283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4456,13 +4444,13 @@
         <v>20989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4506,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4530,13 +4518,13 @@
         <v>7665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4545,13 +4533,13 @@
         <v>19704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4560,13 +4548,13 @@
         <v>27369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4569,13 @@
         <v>10999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4596,13 +4584,13 @@
         <v>14797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4611,13 +4599,13 @@
         <v>25796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4673,13 @@
         <v>43192</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4700,13 +4688,13 @@
         <v>84682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -4715,13 +4703,13 @@
         <v>127874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4724,13 @@
         <v>42993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4751,13 +4739,13 @@
         <v>56476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -4766,13 +4754,13 @@
         <v>99469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4816,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4852,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3BFE9-1C84-4C39-9960-53729474134B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCBC81E-D168-406C-BA2A-FF902E0DCB02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4869,7 +4857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4976,13 +4964,13 @@
         <v>2583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4991,13 +4979,13 @@
         <v>3937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5006,13 +4994,13 @@
         <v>6520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5015,10 @@
         <v>7457</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -5042,13 +5030,13 @@
         <v>7613</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -5057,13 +5045,13 @@
         <v>15069</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5119,13 @@
         <v>10936</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5146,13 +5134,13 @@
         <v>10088</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5161,13 +5149,13 @@
         <v>21024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5170,13 @@
         <v>12912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5197,13 +5185,13 @@
         <v>14629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -5212,13 +5200,13 @@
         <v>27541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5274,13 @@
         <v>5168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5301,13 +5289,13 @@
         <v>6461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5316,13 +5304,13 @@
         <v>11630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5325,13 @@
         <v>8810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5352,13 +5340,13 @@
         <v>12491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -5367,13 +5355,13 @@
         <v>21300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5429,13 @@
         <v>7631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5456,13 +5444,13 @@
         <v>2672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5471,13 +5459,13 @@
         <v>10303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5480,13 @@
         <v>4698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5507,13 +5495,13 @@
         <v>20029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5522,13 +5510,13 @@
         <v>24728</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,10 +5587,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5611,13 +5599,13 @@
         <v>4415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5626,13 +5614,13 @@
         <v>4415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,7 +5638,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -5662,13 +5650,13 @@
         <v>7702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5677,13 +5665,13 @@
         <v>11476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,7 +5727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5751,13 +5739,13 @@
         <v>5045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5766,13 +5754,13 @@
         <v>6086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -5781,13 +5769,13 @@
         <v>11131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5790,13 @@
         <v>4913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5817,13 +5805,13 @@
         <v>8921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -5832,13 +5820,13 @@
         <v>13835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5882,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5906,13 +5894,13 @@
         <v>9343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -5921,13 +5909,13 @@
         <v>24925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -5936,13 +5924,13 @@
         <v>34269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5945,13 @@
         <v>13495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5972,13 +5960,13 @@
         <v>27083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5987,13 +5975,13 @@
         <v>40577</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6061,13 +6049,13 @@
         <v>10610</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6076,13 +6064,13 @@
         <v>13046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6091,13 +6079,13 @@
         <v>23656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6100,13 @@
         <v>22618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -6127,13 +6115,13 @@
         <v>18668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -6142,13 +6130,13 @@
         <v>41286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6204,13 @@
         <v>51316</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>109</v>
@@ -6231,13 +6219,13 @@
         <v>71631</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -6246,13 +6234,13 @@
         <v>122947</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6255,13 @@
         <v>78677</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
@@ -6282,13 +6270,13 @@
         <v>117135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -6297,13 +6285,13 @@
         <v>195812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,7 +6347,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0166D9-6769-427C-BB82-E4AD45A717AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D20FDF2-7188-43FF-B300-16A2E0251757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11D6EB51-1C82-4878-81E3-928B6CBD0C89}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF374CC-6A83-43B0-91E3-8382E9CD4DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="451">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>84,5%</t>
   </si>
   <si>
-    <t>34,93%</t>
+    <t>35,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,844 +94,856 @@
     <t>66,02%</t>
   </si>
   <si>
-    <t>39,16%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2016 (Tasa respuesta: 3,29%)</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>59,99%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>40,01%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
   </si>
   <si>
     <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
@@ -949,9 +961,6 @@
     <t>56,15%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
     <t>14,94%</t>
   </si>
   <si>
@@ -968,9 +977,6 @@
   </si>
   <si>
     <t>83,56%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
   </si>
   <si>
     <t>48,79%</t>
@@ -1796,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F81107F-F63E-48FE-BF9A-D6FCA490B142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB06FA-76F6-4E7E-8931-770A469A59C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2540,7 +2546,7 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2552,13 +2558,13 @@
         <v>3979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,10 +2579,10 @@
         <v>3978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2588,13 +2594,13 @@
         <v>2762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2603,13 +2609,13 @@
         <v>6739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2677,10 +2683,10 @@
         <v>5114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2692,13 +2698,13 @@
         <v>4070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2707,13 +2713,13 @@
         <v>9185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2734,13 @@
         <v>2042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2743,13 +2749,13 @@
         <v>4800</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2758,13 +2764,13 @@
         <v>6842</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,7 +2826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2832,13 +2838,13 @@
         <v>2989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2847,13 +2853,13 @@
         <v>5047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2865,10 +2871,10 @@
         <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2889,13 @@
         <v>6831</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2898,13 +2904,13 @@
         <v>9927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2916,10 +2922,10 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2987,13 +2993,13 @@
         <v>7171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3002,13 +3008,13 @@
         <v>16692</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -3017,13 +3023,13 @@
         <v>23863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3044,13 @@
         <v>9290</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3053,13 +3059,13 @@
         <v>5098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -3068,13 +3074,13 @@
         <v>14388</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3148,13 @@
         <v>27434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -3157,13 +3163,13 @@
         <v>55677</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -3172,13 +3178,13 @@
         <v>83111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3199,13 @@
         <v>37987</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3208,13 +3214,13 @@
         <v>40503</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -3223,13 +3229,13 @@
         <v>78491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3309,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94FD38-480A-471F-9D69-01A886AC7DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA6B461-F1EF-411E-A2A7-FA5C5A874ED0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3433,13 +3439,13 @@
         <v>7302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3448,13 +3454,13 @@
         <v>6961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3463,13 +3469,13 @@
         <v>14263</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3490,13 @@
         <v>3046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3499,13 +3505,13 @@
         <v>3727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3514,13 +3520,13 @@
         <v>6773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3594,13 @@
         <v>3096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3603,13 +3609,13 @@
         <v>9075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3618,13 +3624,13 @@
         <v>12170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3645,13 @@
         <v>3125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3654,13 +3660,13 @@
         <v>9265</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3669,13 +3675,13 @@
         <v>12390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,10 +3749,10 @@
         <v>4283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3758,13 +3764,13 @@
         <v>7528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3773,13 +3779,13 @@
         <v>11811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>1890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -3809,13 +3815,13 @@
         <v>4435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3824,13 +3830,13 @@
         <v>6324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3904,13 @@
         <v>6843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3913,13 +3919,13 @@
         <v>12927</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3928,13 +3934,13 @@
         <v>19769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>8562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3964,13 +3970,13 @@
         <v>7250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3979,13 +3985,13 @@
         <v>15813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4059,13 @@
         <v>814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4068,13 +4074,13 @@
         <v>3878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4083,13 +4089,13 @@
         <v>4692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,10 +4110,10 @@
         <v>4664</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4119,13 +4125,13 @@
         <v>2838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4134,13 +4140,13 @@
         <v>7502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4211,7 +4217,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>32</v>
@@ -4223,13 +4229,13 @@
         <v>4197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4238,13 +4244,13 @@
         <v>7673</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +4268,10 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4274,13 +4280,13 @@
         <v>3882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4289,13 +4295,13 @@
         <v>3882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4363,13 +4369,13 @@
         <v>9713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4378,13 +4384,13 @@
         <v>20412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -4393,13 +4399,13 @@
         <v>30125</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4420,13 @@
         <v>10706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4429,13 +4435,13 @@
         <v>10283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4444,13 +4450,13 @@
         <v>20989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4518,13 +4524,13 @@
         <v>7665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4533,13 +4539,13 @@
         <v>19704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4548,13 +4554,13 @@
         <v>27369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4575,13 @@
         <v>10999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4584,13 +4590,13 @@
         <v>14797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -4599,13 +4605,13 @@
         <v>25796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4679,13 @@
         <v>43192</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4688,13 +4694,13 @@
         <v>84682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -4703,13 +4709,13 @@
         <v>127874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4730,13 @@
         <v>42993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4739,13 +4745,13 @@
         <v>56476</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -4754,13 +4760,13 @@
         <v>99469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCBC81E-D168-406C-BA2A-FF902E0DCB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270BE08-DCF6-432E-9DA1-0EFBB3E469BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4857,7 +4863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4964,7 +4970,7 @@
         <v>2583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
@@ -4979,13 +4985,13 @@
         <v>3937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4994,13 +5000,13 @@
         <v>6520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +5021,7 @@
         <v>7457</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -5030,13 +5036,13 @@
         <v>7613</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -5045,13 +5051,13 @@
         <v>15069</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>10936</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5134,13 +5140,13 @@
         <v>10088</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5149,13 +5155,13 @@
         <v>21024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5176,13 @@
         <v>12912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5185,13 +5191,13 @@
         <v>14629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -5200,13 +5206,13 @@
         <v>27541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>5168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5289,13 +5295,13 @@
         <v>6461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5304,13 +5310,13 @@
         <v>11630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5331,13 @@
         <v>8810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5340,13 +5346,13 @@
         <v>12491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -5355,13 +5361,13 @@
         <v>21300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5435,13 @@
         <v>7631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5444,13 +5450,13 @@
         <v>2672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5459,13 +5465,13 @@
         <v>10303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5486,13 @@
         <v>4698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5495,13 +5501,13 @@
         <v>20029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5510,13 +5516,13 @@
         <v>24728</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,10 +5593,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5599,13 +5605,13 @@
         <v>4415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5614,13 +5620,13 @@
         <v>4415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -5650,13 +5656,13 @@
         <v>7702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5665,13 +5671,13 @@
         <v>11476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5739,13 +5745,13 @@
         <v>5045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -5754,13 +5760,13 @@
         <v>6086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -5769,13 +5775,13 @@
         <v>11131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5796,13 @@
         <v>4913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5805,13 +5811,13 @@
         <v>8921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -5820,13 +5826,13 @@
         <v>13835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,7 +5888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5894,13 +5900,13 @@
         <v>9343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -5909,13 +5915,13 @@
         <v>24925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -5924,13 +5930,13 @@
         <v>34269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5951,13 @@
         <v>13495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5960,13 +5966,13 @@
         <v>27083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5975,13 +5981,13 @@
         <v>40577</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6049,13 +6055,13 @@
         <v>10610</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6064,13 +6070,13 @@
         <v>13046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6079,13 +6085,13 @@
         <v>23656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6106,13 @@
         <v>22618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -6115,13 +6121,13 @@
         <v>18668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -6130,13 +6136,13 @@
         <v>41286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6210,13 @@
         <v>51316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>109</v>
@@ -6219,13 +6225,13 @@
         <v>71631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -6234,13 +6240,13 @@
         <v>122947</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6261,13 @@
         <v>78677</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
@@ -6270,13 +6276,13 @@
         <v>117135</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -6285,13 +6291,13 @@
         <v>195812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,7 +6353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
